--- a/Previous/(08)Yuk.xlsx
+++ b/Previous/(08)Yuk.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="11340" windowHeight="5976" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="11340" windowHeight="5976" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Forma8_7" sheetId="56" r:id="rId1"/>
     <sheet name="Forma8_10" sheetId="57" r:id="rId2"/>
+    <sheet name="Forma8_14" sheetId="58" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t xml:space="preserve">    (sığortaçının (təkrarsığortaçının)  adı)</t>
   </si>
@@ -355,12 +356,79 @@
   <si>
     <t>QEYD: III sütunun hər bir sətirində müvafiq rüb ərzində bağlanmış təkrarsığorta (təkrarsığortaya verilmiş risklər üzrə) müqavilələri üzrə hesablanmış təkrarsığorta haqlarının cəmi göstərilir.</t>
   </si>
+  <si>
+    <t>«Həyat sığortası və qeyri-həyat sığortası
+üzrə sığorta ehtiyatlarının formalaşdırılması Qaydaları»na Əlavə № 3</t>
+  </si>
+  <si>
+    <t>Forma № 8-14</t>
+  </si>
+  <si>
+    <t>Katastrofik risklər üzrə ehtiyat</t>
+  </si>
+  <si>
+    <t>(03)EmlakYanginDigerRisk</t>
+  </si>
+  <si>
+    <t>Sıra sayı</t>
+  </si>
+  <si>
+    <t>Göstəricilərin adı</t>
+  </si>
+  <si>
+    <t>Məbləğ</t>
+  </si>
+  <si>
+    <t>Hesabat tarixindən əvvəlki rübün sonuna KRE</t>
+  </si>
+  <si>
+    <t>Hesabat tarixinə qazanılmış sığorta (təkrarsığorta) haqqının katastrofik risk təminatına düşən hissəsi</t>
+  </si>
+  <si>
+    <t>Hesabat tarixinə qazanılmış təkrarsığorta haqqının katastrofik risk təminatına düşən hissəsi</t>
+  </si>
+  <si>
+    <t>Hesabat tarixinə KRE ("1000" + 12% x max("1100" - "1200"; 0))</t>
+  </si>
+  <si>
+    <t>Hesabat tarixindən əvvəlki rüb üzrə katastrofik risklərə görə verilən sığorta ödənişlərinin (sığorta ödənişləri verilənə qədər isə xalis BTZE-nin) məbləği (sığorta ödənişlərində təkrarsığortaçının payı və sığorta müqaviləsi üzrə azadolma məbləğləri çıxılmaqla)</t>
+  </si>
+  <si>
+    <t>(N-1) təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta haqqı</t>
+  </si>
+  <si>
+    <t>(N-2) təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta haqqı</t>
+  </si>
+  <si>
+    <t>(N-3) təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta haqqı</t>
+  </si>
+  <si>
+    <t>(N-4) təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta haqqı</t>
+  </si>
+  <si>
+    <t>(N-5) təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta haqqı</t>
+  </si>
+  <si>
+    <t>Hesabat tarixinə yekun KRE (min(max("1300"-"1350";0); 150% x max("1400"; "1500";"1600";"1700";"1800"))</t>
+  </si>
+  <si>
+    <t>Qeyd:</t>
+  </si>
+  <si>
+    <t>1. Kodu 1100 olan sətirdə bu Qaydaya 3 nömrəli Əlavədəki 8-7 №-li Formanın X sütununun hesabat tarixi ilə qutaran rübə uyğun məbləği göstərilir.</t>
+  </si>
+  <si>
+    <t>2. Kodu 1200 olan sətirdə bu Qaydaya 3 nömrəli Əlavədəki 8-10 №-li Formanın X sütununun hesabat tarixi ilə qutaran rübə uyğun məbləği göstərilir.</t>
+  </si>
+  <si>
+    <t>3. Müvafiq təqvim ilinin sonuna katastrofik risk təminatı üzrə hesablanmış xalis baza sığorta (təkrarsığorta) haqqı “Sığorta (təkrarsığorta) müqavilələrinin uçotu jurnalı”na uyğun olaraq sığorta haqqının katastrofik risk təminatına düşən hissəsi (komisyon muzd çıxılmaqla) ilə təkrarsığorta haqqının katastrofik risk təminatına düşən hissəsi (komisyon muzd çıxılmaqla) arasındakı fərqə bərabərdir.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -484,8 +552,45 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="A3 Times AzLat"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +603,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -522,11 +645,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -628,6 +843,54 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +914,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,10 +1264,10 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -1012,14 +1290,14 @@
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="13"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1027,14 +1305,14 @@
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -1042,14 +1320,14 @@
     </row>
     <row r="5" spans="1:11" ht="11.25" customHeight="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -1616,14 +1894,14 @@
     </row>
     <row r="25" spans="1:11" ht="28.5" customHeight="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -1644,12 +1922,12 @@
     </row>
     <row r="27" spans="1:11" ht="18">
       <c r="A27" s="13"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1659,12 +1937,12 @@
     </row>
     <row r="28" spans="1:11" ht="18">
       <c r="A28" s="13"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1687,12 +1965,12 @@
     </row>
     <row r="30" spans="1:11" ht="18">
       <c r="A30" s="13"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1702,12 +1980,12 @@
     </row>
     <row r="31" spans="1:11" ht="18">
       <c r="A31" s="13"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1778,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="86" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1793,11 +2071,11 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
@@ -1818,42 +2096,42 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -2388,14 +2666,14 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -2414,12 +2692,12 @@
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2428,12 +2706,12 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2454,12 +2732,12 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2468,12 +2746,12 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2521,4 +2799,354 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="20.77734375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="37" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999">
+      <c r="B4" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="B5" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6">
+      <c r="B6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="B7" s="14"/>
+      <c r="C7" s="22">
+        <v>45383</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" thickBot="1">
+      <c r="B10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickBot="1">
+      <c r="B11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.6" thickBot="1">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="43">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="44">
+        <v>689.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45.6" thickBot="1">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="45">
+        <v>2</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1100</v>
+      </c>
+      <c r="E13" s="48">
+        <v>732.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45.6" thickBot="1">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="45">
+        <v>3</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="49">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="50">
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.6" thickBot="1">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="45">
+        <v>4</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="51">
+        <v>767.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105.6" thickBot="1">
+      <c r="B16" s="45">
+        <v>5</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1350</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B17" s="45">
+        <v>6</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="51">
+        <v>5052.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B18" s="45">
+        <v>7</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="51">
+        <v>4833.1499999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B19" s="45">
+        <v>8</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="49">
+        <v>1600</v>
+      </c>
+      <c r="E19" s="51">
+        <v>1904.3600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B20" s="45">
+        <v>9</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="49">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="51">
+        <v>1582.56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B21" s="45">
+        <v>10</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1800</v>
+      </c>
+      <c r="E21" s="51">
+        <v>2268.34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45.6" thickBot="1">
+      <c r="B22" s="45">
+        <v>11</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="49">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="51">
+        <v>767.71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="2:5" ht="15">
+      <c r="B26" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+    </row>
+    <row r="29" spans="2:5" ht="15">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>